--- a/Products/EVB-2-1/Processor_Pinout/Project Design - EVB.xlsx
+++ b/Products/EVB-2-1/Processor_Pinout/Project Design - EVB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC241D1-8392-40AC-810F-EAB7ECEF3B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A607AEE-368B-49B0-8BDB-89ADA73D8027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-120" windowWidth="27420" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E70 Pinout" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="790">
   <si>
     <t>Power</t>
   </si>
@@ -2068,9 +2068,6 @@
 Connections</t>
   </si>
   <si>
-    <t>Multi-Ties</t>
-  </si>
-  <si>
     <t>SCK</t>
   </si>
   <si>
@@ -2308,20 +2305,119 @@
     <t>PA0, PA23, PE3</t>
   </si>
   <si>
-    <t>EVB Pins</t>
-  </si>
-  <si>
     <t>PD27, PE4</t>
   </si>
   <si>
     <t>PC13/PE0</t>
+  </si>
+  <si>
+    <t>uINS-Ser0.TxD</t>
+  </si>
+  <si>
+    <t>uINS-Ser0.RxD</t>
+  </si>
+  <si>
+    <t>uINS-Ser1.TxD, SPI</t>
+  </si>
+  <si>
+    <t>uINS-Ser1.RxD, SPI</t>
+  </si>
+  <si>
+    <t>uINS-Ser1.SCLK,SPI</t>
+  </si>
+  <si>
+    <t>uINS-Ser1.CS,SPI</t>
+  </si>
+  <si>
+    <t>uINS-Ser2.RxD (I2C0.SDA)</t>
+  </si>
+  <si>
+    <t>uINS-Ser2.TxD (I2C0.SCL)</t>
+  </si>
+  <si>
+    <t>EVB SAM Pins</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>H8-5</t>
+  </si>
+  <si>
+    <t>H8-6</t>
+  </si>
+  <si>
+    <t>H8-7</t>
+  </si>
+  <si>
+    <t>H8-8</t>
+  </si>
+  <si>
+    <t>H8-9</t>
+  </si>
+  <si>
+    <t>H8-10</t>
+  </si>
+  <si>
+    <t>H8-11</t>
+  </si>
+  <si>
+    <t>H8-12</t>
+  </si>
+  <si>
+    <t>H8-13</t>
+  </si>
+  <si>
+    <t>H8-14</t>
+  </si>
+  <si>
+    <t>H7-7</t>
+  </si>
+  <si>
+    <t>H7-8</t>
+  </si>
+  <si>
+    <t>H7-9</t>
+  </si>
+  <si>
+    <t>H7-10</t>
+  </si>
+  <si>
+    <t>H7-11</t>
+  </si>
+  <si>
+    <t>H7-12</t>
+  </si>
+  <si>
+    <t>H7-5</t>
+  </si>
+  <si>
+    <t>H7-6</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>H4-7</t>
+  </si>
+  <si>
+    <t>H4-8</t>
+  </si>
+  <si>
+    <t>H4-9</t>
+  </si>
+  <si>
+    <t>Ext Radio Rx</t>
+  </si>
+  <si>
+    <t>Ext Radio Tx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2344,8 +2440,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2430,6 +2532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2462,7 +2570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2512,9 +2620,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2581,6 +2686,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2879,10 +2995,10 @@
   <dimension ref="A1:AM137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="AG39" sqref="AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,7 +3029,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
     <col min="26" max="26" width="8" customWidth="1"/>
     <col min="27" max="27" width="2.5703125" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" customWidth="1"/>
+    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.5703125" customWidth="1"/>
     <col min="30" max="30" width="12.42578125" customWidth="1"/>
     <col min="31" max="31" width="5.5703125" customWidth="1"/>
@@ -2923,7 +3039,7 @@
     <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="16" customWidth="1"/>
     <col min="37" max="37" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.5703125" style="50" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2996,7 +3112,7 @@
       <c r="Z1" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="AM1" s="50"/>
+      <c r="AM1" s="49"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3032,8 +3148,8 @@
       <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="41" t="s">
-        <v>731</v>
+      <c r="L3" s="40" t="s">
+        <v>730</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>27</v>
@@ -3057,9 +3173,9 @@
         <v>660</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>727</v>
-      </c>
-      <c r="W3" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="W3" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -3097,8 +3213,8 @@
       <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="41" t="s">
-        <v>732</v>
+      <c r="L4" s="40" t="s">
+        <v>731</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>27</v>
@@ -3122,9 +3238,9 @@
         <v>661</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>728</v>
-      </c>
-      <c r="W4" s="34" t="s">
+        <v>727</v>
+      </c>
+      <c r="W4" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -3212,7 +3328,7 @@
       <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="53" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -3274,7 +3390,7 @@
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="53" t="s">
         <v>57</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -3348,7 +3464,7 @@
       <c r="M8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="27" t="s">
         <v>609</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -3410,7 +3526,7 @@
       <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="27" t="s">
         <v>451</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -3491,7 +3607,7 @@
         <v>70</v>
       </c>
       <c r="W10" s="8"/>
-      <c r="AM10" s="52"/>
+      <c r="AM10" s="51"/>
     </row>
     <row r="11" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -3552,7 +3668,7 @@
         <v>76</v>
       </c>
       <c r="W11" s="8"/>
-      <c r="AM11" s="52"/>
+      <c r="AM11" s="51"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3582,7 +3698,7 @@
       <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>605</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -3647,7 +3763,7 @@
       <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="27" t="s">
         <v>604</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -3739,10 +3855,10 @@
       <c r="R14" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="35" t="s">
-        <v>703</v>
-      </c>
-      <c r="V14" s="35" t="s">
+      <c r="U14" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="V14" s="34" t="s">
         <v>671</v>
       </c>
     </row>
@@ -3801,10 +3917,10 @@
       <c r="R15" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="35" t="s">
-        <v>703</v>
-      </c>
-      <c r="V15" s="35" t="s">
+      <c r="U15" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="V15" s="34" t="s">
         <v>673</v>
       </c>
     </row>
@@ -3863,10 +3979,10 @@
       <c r="R16" t="s">
         <v>35</v>
       </c>
-      <c r="U16" s="35" t="s">
-        <v>702</v>
-      </c>
-      <c r="V16" s="35" t="s">
+      <c r="U16" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="V16" s="34" t="s">
         <v>672</v>
       </c>
     </row>
@@ -3957,10 +4073,10 @@
       <c r="J18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="44" t="s">
+      <c r="K18" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="43" t="s">
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -3982,26 +4098,26 @@
         <v>35</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V18" s="18"/>
-      <c r="W18" s="34" t="s">
+      <c r="W18" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="AB18" s="36" t="s">
-        <v>675</v>
-      </c>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="53"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4034,11 +4150,11 @@
       <c r="J19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>730</v>
+      <c r="K19" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>27</v>
@@ -4062,45 +4178,49 @@
         <v>668</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>729</v>
-      </c>
-      <c r="W19" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="W19" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="AB19" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="AC19" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="AD19" s="33" t="s">
+      <c r="Z19" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="AC19" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD19" s="32" t="s">
         <v>654</v>
       </c>
-      <c r="AE19" s="33" t="s">
+      <c r="AE19" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="AF19" s="33" t="s">
+      <c r="AF19" s="32" t="s">
         <v>655</v>
       </c>
-      <c r="AG19" s="49" t="s">
+      <c r="AG19" s="48" t="s">
         <v>629</v>
       </c>
-      <c r="AH19" s="33" t="s">
+      <c r="AH19" s="32" t="s">
         <v>656</v>
       </c>
-      <c r="AI19" s="33" t="s">
+      <c r="AI19" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="AJ19" s="33" t="s">
+      <c r="AJ19" s="32" t="s">
         <v>657</v>
       </c>
-      <c r="AK19" s="33" t="s">
+      <c r="AK19" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="AL19" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="AM19" s="49" t="s">
+      <c r="AL19" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="AM19" s="48" t="s">
         <v>629</v>
       </c>
     </row>
@@ -4160,21 +4280,25 @@
         <v>35</v>
       </c>
       <c r="U20" t="s">
-        <v>704</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="AA20" s="18"/>
       <c r="AB20" s="18" t="s">
-        <v>658</v>
+        <v>443</v>
       </c>
       <c r="AC20" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="AD20" s="29" t="s">
-        <v>679</v>
-      </c>
-      <c r="AE20" s="46" t="s">
+      <c r="AD20" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE20" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="AG20" s="50"/>
+      <c r="AG20" s="49"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4232,30 +4356,34 @@
         <v>35</v>
       </c>
       <c r="U21" t="s">
-        <v>709</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="Z21" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA21" s="18"/>
       <c r="AB21" s="18" t="s">
-        <v>659</v>
+        <v>599</v>
       </c>
       <c r="AC21" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="AD21" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="AE21" s="46" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD21" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE21" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="AF21" s="44" t="s">
-        <v>730</v>
-      </c>
-      <c r="AG21" s="44" t="s">
+      <c r="AF21" s="43" t="s">
+        <v>729</v>
+      </c>
+      <c r="AG21" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AH21" s="32" t="s">
-        <v>743</v>
-      </c>
-      <c r="AI21" s="32" t="s">
+      <c r="AH21" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI21" s="31" t="s">
         <v>140</v>
       </c>
       <c r="AJ21" s="18" t="s">
@@ -4321,40 +4449,44 @@
         <v>35</v>
       </c>
       <c r="U22" t="s">
-        <v>710</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="AA22" s="18"/>
       <c r="AB22" s="18" t="s">
-        <v>660</v>
+        <v>573</v>
       </c>
       <c r="AC22" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="AD22" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="AE22" s="46" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD22" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE22" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AF22" s="44" t="s">
-        <v>731</v>
-      </c>
-      <c r="AG22" s="44" t="s">
+      <c r="AF22" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="AG22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AH22" s="32" t="s">
+      <c r="AH22" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="AI22" s="32"/>
+      <c r="AI22" s="31"/>
       <c r="AJ22" s="18" t="s">
         <v>30</v>
       </c>
       <c r="AK22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AL22" s="39" t="s">
+      <c r="AL22" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="AM22" s="44" t="s">
+      <c r="AM22" s="43" t="s">
         <v>432</v>
       </c>
     </row>
@@ -4414,24 +4546,28 @@
         <v>35</v>
       </c>
       <c r="U23" t="s">
-        <v>711</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="Z23" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="AA23" s="18"/>
       <c r="AB23" s="18" t="s">
-        <v>661</v>
+        <v>561</v>
       </c>
       <c r="AC23" s="18" t="s">
-        <v>749</v>
-      </c>
-      <c r="AD23" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="AE23" s="46" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD23" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE23" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="AF23" s="44" t="s">
-        <v>732</v>
-      </c>
-      <c r="AG23" s="44" t="s">
+      <c r="AF23" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="AG23" s="43" t="s">
         <v>37</v>
       </c>
       <c r="AJ23" s="18" t="s">
@@ -4463,13 +4599,13 @@
       <c r="G24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="28" t="s">
         <v>600</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -4502,31 +4638,35 @@
       <c r="V24" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="W24" s="34" t="s">
+      <c r="W24" s="33" t="s">
         <v>644</v>
       </c>
+      <c r="Z24" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="AA24" s="18"/>
       <c r="AB24" s="18" t="s">
-        <v>662</v>
+        <v>450</v>
       </c>
       <c r="AC24" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AD24" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="AE24" s="47" t="s">
+      <c r="AE24" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="AF24" s="41" t="s">
-        <v>724</v>
-      </c>
-      <c r="AG24" s="43" t="s">
+      <c r="AF24" s="40" t="s">
+        <v>723</v>
+      </c>
+      <c r="AG24" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="AH24" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="AI24" s="32" t="s">
+      <c r="AH24" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="AI24" s="31" t="s">
         <v>496</v>
       </c>
       <c r="AJ24" s="18" t="s">
@@ -4535,10 +4675,10 @@
       <c r="AK24" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="AL24" s="39" t="s">
+      <c r="AL24" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="AM24" s="44" t="s">
+      <c r="AM24" s="43" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4597,22 +4737,26 @@
       <c r="R25" t="s">
         <v>35</v>
       </c>
+      <c r="Z25" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA25" s="18"/>
       <c r="AB25" s="18" t="s">
-        <v>663</v>
+        <v>456</v>
       </c>
       <c r="AC25" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AD25" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="AE25" s="47" t="s">
+      <c r="AE25" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="AF25" s="41" t="s">
-        <v>725</v>
-      </c>
-      <c r="AG25" s="43" t="s">
+      <c r="AF25" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="AG25" s="42" t="s">
         <v>562</v>
       </c>
       <c r="AJ25" s="18" t="s">
@@ -4650,7 +4794,7 @@
       <c r="I26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="28" t="s">
         <v>596</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -4681,23 +4825,27 @@
         <v>660</v>
       </c>
       <c r="V26" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="W26" s="34" t="s">
+        <v>675</v>
+      </c>
+      <c r="W26" s="33" t="s">
         <v>644</v>
       </c>
+      <c r="Z26" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA26" s="18"/>
       <c r="AB26" s="18" t="s">
-        <v>664</v>
+        <v>453</v>
       </c>
       <c r="AC26" s="18" t="s">
         <v>551</v>
       </c>
       <c r="AD26" s="18"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="43" t="s">
-        <v>726</v>
-      </c>
-      <c r="AG26" s="43" t="s">
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="AG26" s="42" t="s">
         <v>551</v>
       </c>
     </row>
@@ -4729,7 +4877,7 @@
       <c r="I27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="28" t="s">
         <v>594</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -4762,27 +4910,31 @@
       <c r="V27" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="W27" s="34" t="s">
+      <c r="W27" s="33" t="s">
         <v>644</v>
       </c>
+      <c r="Z27" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="AA27" s="18"/>
       <c r="AB27" s="18" t="s">
-        <v>665</v>
+        <v>461</v>
       </c>
       <c r="AC27" s="18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AD27" s="18"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="40" t="s">
-        <v>736</v>
-      </c>
-      <c r="AG27" s="44" t="s">
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="AG27" s="43" t="s">
         <v>428</v>
       </c>
-      <c r="AH27" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="AI27" s="32" t="s">
+      <c r="AH27" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="AI27" s="31" t="s">
         <v>428</v>
       </c>
       <c r="AJ27" s="18" t="s">
@@ -4838,7 +4990,7 @@
       <c r="O28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="22" t="s">
         <v>159</v>
       </c>
       <c r="Q28" s="1" t="s">
@@ -4853,25 +5005,29 @@
       <c r="V28" s="11" t="s">
         <v>626</v>
       </c>
+      <c r="Z28" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="AA28" s="18"/>
       <c r="AB28" s="18" t="s">
-        <v>677</v>
+        <v>467</v>
       </c>
       <c r="AC28" s="18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD28" s="18"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="AG28" s="44" t="s">
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="38" t="s">
+        <v>736</v>
+      </c>
+      <c r="AG28" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="AH28" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="AI28" s="32" t="s">
-        <v>757</v>
+      <c r="AH28" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI28" s="31" t="s">
+        <v>755</v>
       </c>
       <c r="AJ28" s="18" t="s">
         <v>68</v>
@@ -4879,10 +5035,10 @@
       <c r="AK28" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="AL28" s="39" t="s">
+      <c r="AL28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="AM28" s="44" t="s">
+      <c r="AM28" s="43" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4926,7 +5082,7 @@
       <c r="M29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="N29" s="22" t="s">
         <v>164</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -4947,24 +5103,28 @@
       <c r="V29" s="11" t="s">
         <v>244</v>
       </c>
+      <c r="Z29" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="AA29" s="18"/>
       <c r="AB29" s="18" t="s">
-        <v>678</v>
+        <v>471</v>
       </c>
       <c r="AC29" s="18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD29" s="18"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="39" t="s">
-        <v>738</v>
-      </c>
-      <c r="AG29" s="44" t="s">
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="38" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG29" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="AH29" s="32" t="s">
-        <v>746</v>
-      </c>
-      <c r="AI29" s="32" t="s">
+      <c r="AH29" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="AI29" s="31" t="s">
         <v>531</v>
       </c>
       <c r="AJ29" s="18" t="s">
@@ -5014,7 +5174,7 @@
       <c r="M30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="22" t="s">
         <v>169</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -5035,20 +5195,22 @@
       <c r="V30" s="11" t="s">
         <v>243</v>
       </c>
+      <c r="Z30" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA30" s="17"/>
       <c r="AB30" s="17" t="s">
-        <v>633</v>
+        <v>756</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="AD30" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG30" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="AD30" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE30" s="47" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5090,7 +5252,7 @@
       <c r="M31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="23" t="s">
+      <c r="N31" s="22" t="s">
         <v>175</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -5111,20 +5273,22 @@
       <c r="V31" s="11" t="s">
         <v>627</v>
       </c>
+      <c r="Z31" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA31" s="17"/>
       <c r="AB31" s="17" t="s">
-        <v>633</v>
+        <v>757</v>
       </c>
       <c r="AC31" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="AD31" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="AG31" s="51"/>
+        <v>608</v>
+      </c>
+      <c r="AD31" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE31" s="47" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -5187,6 +5351,28 @@
       <c r="V32" s="16" t="s">
         <v>375</v>
       </c>
+      <c r="Z32" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="AC32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD32" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE32" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF32" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG32" s="50" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5228,7 +5414,7 @@
       <c r="M33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="N33" s="22" t="s">
         <v>181</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -5248,6 +5434,28 @@
       </c>
       <c r="V33" s="11" t="s">
         <v>574</v>
+      </c>
+      <c r="Z33" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="AC33" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD33" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE33" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF33" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG33" s="50" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
@@ -5290,7 +5498,7 @@
       <c r="M34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="N34" s="22" t="s">
         <v>186</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -5310,6 +5518,22 @@
       </c>
       <c r="V34" s="11" t="s">
         <v>372</v>
+      </c>
+      <c r="Z34" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="AC34" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF34" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG34" s="50" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
@@ -5352,7 +5576,7 @@
       <c r="M35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="29" t="s">
+      <c r="N35" s="28" t="s">
         <v>587</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -5372,6 +5596,22 @@
       </c>
       <c r="V35" s="16" t="s">
         <v>650</v>
+      </c>
+      <c r="Z35" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="AC35" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF35" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG35" s="50" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
@@ -5414,7 +5654,7 @@
       <c r="M36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="29" t="s">
+      <c r="N36" s="28" t="s">
         <v>586</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -5434,6 +5674,22 @@
       </c>
       <c r="V36" s="16" t="s">
         <v>651</v>
+      </c>
+      <c r="Z36" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="AC36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD36" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE36" s="54" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
@@ -5476,7 +5732,7 @@
       <c r="M37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="29" t="s">
+      <c r="N37" s="28" t="s">
         <v>584</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -5495,7 +5751,23 @@
         <v>622</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
+      </c>
+      <c r="Z37" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="AC37" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD37" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE37" s="54" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
@@ -5538,7 +5810,7 @@
       <c r="M38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="29" t="s">
+      <c r="N38" s="28" t="s">
         <v>582</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -5557,7 +5829,29 @@
         <v>622</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="Z38" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="AC38" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD38" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE38" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
@@ -5588,7 +5882,7 @@
       <c r="I39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="53" t="s">
         <v>207</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -5606,7 +5900,7 @@
       <c r="O39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P39" s="29" t="s">
+      <c r="P39" s="28" t="s">
         <v>580</v>
       </c>
       <c r="Q39" s="1" t="s">
@@ -5622,8 +5916,30 @@
         <v>631</v>
       </c>
       <c r="W39"/>
-    </row>
-    <row r="40" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC39" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD39" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE39" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>210</v>
       </c>
@@ -5645,13 +5961,13 @@
       <c r="G40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="23" t="s">
         <v>211</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="53" t="s">
         <v>212</v>
       </c>
       <c r="K40" s="8" t="s">
@@ -5678,16 +5994,34 @@
       <c r="R40" s="9" t="s">
         <v>214</v>
       </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
       <c r="U40" s="18" t="s">
         <v>638</v>
       </c>
       <c r="V40" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="W40" s="8"/>
-      <c r="AM40" s="52"/>
-    </row>
-    <row r="41" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="W40" s="55"/>
+      <c r="Z40" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="AC40" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG40" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM40" s="57"/>
+    </row>
+    <row r="41" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>215</v>
       </c>
@@ -5709,7 +6043,7 @@
       <c r="G41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="23" t="s">
         <v>216</v>
       </c>
       <c r="I41" s="8" t="s">
@@ -5742,16 +6076,18 @@
       <c r="R41" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
       <c r="U41" s="18" t="s">
         <v>638</v>
       </c>
       <c r="V41" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="W41" s="8"/>
-      <c r="AM41" s="52"/>
-    </row>
-    <row r="42" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+      <c r="W41" s="55"/>
+      <c r="AM41" s="57"/>
+    </row>
+    <row r="42" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>219</v>
       </c>
@@ -5773,7 +6109,7 @@
       <c r="G42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="23" t="s">
         <v>220</v>
       </c>
       <c r="I42" s="8" t="s">
@@ -5806,16 +6142,18 @@
       <c r="R42" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
       <c r="U42" s="18" t="s">
         <v>638</v>
       </c>
       <c r="V42" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="W42" s="8"/>
-      <c r="AM42" s="52"/>
-    </row>
-    <row r="43" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+      <c r="W42" s="55"/>
+      <c r="AM42" s="57"/>
+    </row>
+    <row r="43" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>222</v>
       </c>
@@ -5870,13 +6208,16 @@
       <c r="R43" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
       <c r="U43" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="W43" s="8"/>
-      <c r="AM43" s="52"/>
-    </row>
-    <row r="44" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V43" s="9"/>
+      <c r="W43" s="55"/>
+      <c r="AM43" s="57"/>
+    </row>
+    <row r="44" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>226</v>
       </c>
@@ -5931,11 +6272,14 @@
       <c r="R44" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
       <c r="U44" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="W44" s="8"/>
-      <c r="AM44" s="52"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="55"/>
+      <c r="AM44" s="57"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6054,7 +6398,7 @@
       <c r="V46" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="W46" s="34" t="s">
+      <c r="W46" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -6114,7 +6458,7 @@
         <v>35</v>
       </c>
       <c r="U47" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
@@ -6173,7 +6517,7 @@
         <v>35</v>
       </c>
       <c r="U48" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
@@ -6232,7 +6576,7 @@
         <v>35</v>
       </c>
       <c r="U49" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
@@ -6291,7 +6635,7 @@
         <v>35</v>
       </c>
       <c r="U50" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
@@ -6384,8 +6728,8 @@
       <c r="K52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="41" t="s">
-        <v>724</v>
+      <c r="L52" s="40" t="s">
+        <v>723</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>27</v>
@@ -6409,12 +6753,12 @@
         <v>662</v>
       </c>
       <c r="V52" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="W52" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="W52" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="AB52" s="35"/>
+      <c r="AB52" s="34"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -6450,8 +6794,8 @@
       <c r="K53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="41" t="s">
-        <v>725</v>
+      <c r="L53" s="40" t="s">
+        <v>724</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>27</v>
@@ -6475,9 +6819,9 @@
         <v>663</v>
       </c>
       <c r="V53" s="18" t="s">
-        <v>734</v>
-      </c>
-      <c r="AB53" s="35"/>
+        <v>733</v>
+      </c>
+      <c r="AB53" s="34"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -6535,7 +6879,7 @@
         <v>35</v>
       </c>
       <c r="U54" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
@@ -6572,7 +6916,7 @@
       <c r="K55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="40" t="s">
+      <c r="L55" s="39" t="s">
         <v>554</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -6594,7 +6938,7 @@
         <v>35</v>
       </c>
       <c r="U55" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
@@ -6631,8 +6975,8 @@
       <c r="K56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L56" s="41" t="s">
-        <v>726</v>
+      <c r="L56" s="40" t="s">
+        <v>725</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>27</v>
@@ -6656,7 +7000,7 @@
         <v>664</v>
       </c>
       <c r="V56" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
@@ -6715,7 +7059,7 @@
         <v>35</v>
       </c>
       <c r="U57" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
@@ -6752,7 +7096,7 @@
       <c r="K58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L58" s="40" t="s">
+      <c r="L58" s="39" t="s">
         <v>542</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -6774,7 +7118,7 @@
         <v>35</v>
       </c>
       <c r="U58" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
@@ -6817,7 +7161,7 @@
       <c r="M59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="31" t="s">
+      <c r="N59" s="30" t="s">
         <v>447</v>
       </c>
       <c r="O59" s="1" t="s">
@@ -6832,14 +7176,14 @@
       <c r="R59" t="s">
         <v>35</v>
       </c>
-      <c r="U59" s="27" t="s">
+      <c r="U59" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="V59" s="27" t="s">
+      <c r="V59" s="26" t="s">
         <v>632</v>
       </c>
       <c r="X59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -6864,7 +7208,7 @@
       <c r="G60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="H60" s="31" t="s">
         <v>537</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -6898,10 +7242,10 @@
         <v>35</v>
       </c>
       <c r="U60" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V60" s="18"/>
-      <c r="W60" s="34" t="s">
+      <c r="W60" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -6945,7 +7289,7 @@
       <c r="M61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N61" s="31" t="s">
+      <c r="N61" s="30" t="s">
         <v>480</v>
       </c>
       <c r="O61" s="1" t="s">
@@ -6960,14 +7304,14 @@
       <c r="R61" t="s">
         <v>35</v>
       </c>
-      <c r="U61" s="27" t="s">
+      <c r="U61" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="V61" s="27" t="s">
+      <c r="V61" s="26" t="s">
         <v>631</v>
       </c>
       <c r="X61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
@@ -6992,7 +7336,7 @@
       <c r="G62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H62" s="31" t="s">
         <v>530</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -7026,10 +7370,10 @@
         <v>35</v>
       </c>
       <c r="U62" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V62" s="18"/>
-      <c r="W62" s="34" t="s">
+      <c r="W62" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7151,7 +7495,7 @@
         <v>35</v>
       </c>
       <c r="U64" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
@@ -7210,7 +7554,7 @@
         <v>35</v>
       </c>
       <c r="U65" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
@@ -7325,7 +7669,7 @@
         <v>35</v>
       </c>
       <c r="U67" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
@@ -7449,7 +7793,7 @@
         <v>647</v>
       </c>
       <c r="V69" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
@@ -7486,8 +7830,8 @@
       <c r="K70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L70" s="41" t="s">
-        <v>740</v>
+      <c r="L70" s="40" t="s">
+        <v>739</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>27</v>
@@ -7511,7 +7855,7 @@
         <v>647</v>
       </c>
       <c r="V70" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -7548,13 +7892,13 @@
       <c r="K71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L71" s="41" t="s">
-        <v>741</v>
+      <c r="L71" s="40" t="s">
+        <v>740</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N71" s="25" t="s">
+      <c r="N71" s="24" t="s">
         <v>515</v>
       </c>
       <c r="O71" s="1" t="s">
@@ -7616,7 +7960,7 @@
       <c r="M72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N72" s="25" t="s">
+      <c r="N72" s="24" t="s">
         <v>510</v>
       </c>
       <c r="O72" s="1" t="s">
@@ -7678,7 +8022,7 @@
       <c r="M73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N73" s="25" t="s">
+      <c r="N73" s="24" t="s">
         <v>505</v>
       </c>
       <c r="O73" s="1" t="s">
@@ -7734,13 +8078,13 @@
       <c r="K74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L74" s="41" t="s">
-        <v>742</v>
+      <c r="L74" s="40" t="s">
+        <v>741</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N74" s="25" t="s">
+      <c r="N74" s="24" t="s">
         <v>502</v>
       </c>
       <c r="O74" s="1" t="s">
@@ -7818,7 +8162,7 @@
         <v>35</v>
       </c>
       <c r="U75" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -7843,7 +8187,7 @@
       <c r="G76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="31" t="s">
         <v>495</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -7855,7 +8199,7 @@
       <c r="K76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L76" s="39" t="s">
+      <c r="L76" s="38" t="s">
         <v>494</v>
       </c>
       <c r="M76" s="1" t="s">
@@ -7882,11 +8226,11 @@
       <c r="V76" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="W76" s="34" t="s">
+      <c r="W76" s="33" t="s">
         <v>644</v>
       </c>
       <c r="Y76" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -7911,7 +8255,7 @@
       <c r="G77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H77" s="42" t="s">
+      <c r="H77" s="41" t="s">
         <v>492</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -7923,7 +8267,7 @@
       <c r="K77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L77" s="40" t="s">
+      <c r="L77" s="39" t="s">
         <v>491</v>
       </c>
       <c r="M77" s="1" t="s">
@@ -7945,7 +8289,7 @@
         <v>35</v>
       </c>
       <c r="Y77" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
@@ -8065,7 +8409,7 @@
       <c r="V79" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="W79" s="34" t="s">
+      <c r="W79" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -8128,7 +8472,7 @@
         <v>622</v>
       </c>
       <c r="V80" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -8187,7 +8531,7 @@
         <v>35</v>
       </c>
       <c r="U81" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -8245,10 +8589,10 @@
       <c r="R82" t="s">
         <v>35</v>
       </c>
-      <c r="U82" s="35" t="s">
-        <v>702</v>
-      </c>
-      <c r="V82" s="35" t="s">
+      <c r="U82" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="V82" s="34" t="s">
         <v>673</v>
       </c>
     </row>
@@ -8308,7 +8652,7 @@
         <v>35</v>
       </c>
       <c r="U83" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -8422,10 +8766,10 @@
       <c r="R85" t="s">
         <v>35</v>
       </c>
-      <c r="U85" s="35" t="s">
-        <v>702</v>
-      </c>
-      <c r="V85" s="35" t="s">
+      <c r="U85" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="V85" s="34" t="s">
         <v>671</v>
       </c>
     </row>
@@ -8484,9 +8828,10 @@
       <c r="R86" t="s">
         <v>35</v>
       </c>
-      <c r="U86" t="s">
-        <v>700</v>
-      </c>
+      <c r="U86" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="V86" s="27"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -8656,7 +9001,7 @@
         <v>208</v>
       </c>
       <c r="U89" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -8755,7 +9100,7 @@
       <c r="M91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N91" s="30" t="s">
+      <c r="N91" s="29" t="s">
         <v>299</v>
       </c>
       <c r="O91" s="1" t="s">
@@ -8923,7 +9268,7 @@
       <c r="K94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L94" s="29" t="s">
+      <c r="L94" s="28" t="s">
         <v>477</v>
       </c>
       <c r="M94" s="1" t="s">
@@ -8985,7 +9330,7 @@
       <c r="K95" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L95" s="29" t="s">
+      <c r="L95" s="28" t="s">
         <v>475</v>
       </c>
       <c r="M95" s="1" t="s">
@@ -9069,7 +9414,7 @@
         <v>35</v>
       </c>
       <c r="U96" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -9106,7 +9451,7 @@
       <c r="K97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L97" s="29" t="s">
+      <c r="L97" s="28" t="s">
         <v>469</v>
       </c>
       <c r="M97" s="1" t="s">
@@ -9168,7 +9513,7 @@
       <c r="K98" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L98" s="29" t="s">
+      <c r="L98" s="28" t="s">
         <v>465</v>
       </c>
       <c r="M98" s="1" t="s">
@@ -9230,7 +9575,7 @@
       <c r="K99" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L99" s="30" t="s">
+      <c r="L99" s="29" t="s">
         <v>328</v>
       </c>
       <c r="M99" s="1" t="s">
@@ -9295,7 +9640,7 @@
       <c r="K100" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L100" s="30" t="s">
+      <c r="L100" s="29" t="s">
         <v>330</v>
       </c>
       <c r="M100" s="1" t="s">
@@ -9360,7 +9705,7 @@
       <c r="K101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L101" s="30" t="s">
+      <c r="L101" s="29" t="s">
         <v>335</v>
       </c>
       <c r="M101" s="1" t="s">
@@ -9443,10 +9788,10 @@
       <c r="R102" t="s">
         <v>35</v>
       </c>
-      <c r="U102" s="35" t="s">
-        <v>703</v>
-      </c>
-      <c r="V102" s="35" t="s">
+      <c r="U102" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="V102" s="34" t="s">
         <v>672</v>
       </c>
     </row>
@@ -9546,7 +9891,7 @@
       <c r="M104" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N104" s="28" t="s">
+      <c r="N104" s="27" t="s">
         <v>455</v>
       </c>
       <c r="O104" s="1" t="s">
@@ -9561,10 +9906,10 @@
       <c r="R104" t="s">
         <v>35</v>
       </c>
-      <c r="U104" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="V104" s="28" t="s">
+      <c r="U104" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="V104" s="27" t="s">
         <v>632</v>
       </c>
     </row>
@@ -9608,7 +9953,7 @@
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="28" t="s">
+      <c r="N105" s="27" t="s">
         <v>452</v>
       </c>
       <c r="O105" s="1" t="s">
@@ -9623,10 +9968,10 @@
       <c r="R105" t="s">
         <v>35</v>
       </c>
-      <c r="U105" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="V105" s="28" t="s">
+      <c r="U105" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="V105" s="27" t="s">
         <v>631</v>
       </c>
     </row>
@@ -9689,7 +10034,7 @@
         <v>665</v>
       </c>
       <c r="V106" s="18"/>
-      <c r="W106" s="34" t="s">
+      <c r="W106" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -9721,7 +10066,7 @@
       <c r="I107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J107" s="38" t="s">
+      <c r="J107" s="37" t="s">
         <v>448</v>
       </c>
       <c r="K107" s="1" t="s">
@@ -9748,10 +10093,10 @@
       <c r="R107" t="s">
         <v>35</v>
       </c>
-      <c r="U107" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="V107" s="28" t="s">
+      <c r="U107" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="V107" s="27" t="s">
         <v>632</v>
       </c>
     </row>
@@ -9839,7 +10184,7 @@
       <c r="I109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J109" s="38" t="s">
+      <c r="J109" s="37" t="s">
         <v>441</v>
       </c>
       <c r="K109" s="1">
@@ -9866,10 +10211,10 @@
       <c r="R109" t="s">
         <v>35</v>
       </c>
-      <c r="U109" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="V109" s="28" t="s">
+      <c r="U109" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="V109" s="27" t="s">
         <v>631</v>
       </c>
     </row>
@@ -9951,7 +10296,7 @@
       <c r="G111" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H111" s="32" t="s">
+      <c r="H111" s="31" t="s">
         <v>439</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -9963,8 +10308,8 @@
       <c r="K111" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L111" s="41" t="s">
-        <v>737</v>
+      <c r="L111" s="40" t="s">
+        <v>736</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>27</v>
@@ -9985,12 +10330,12 @@
         <v>35</v>
       </c>
       <c r="U111" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V111" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="W111" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="W111" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -10028,8 +10373,8 @@
       <c r="K112" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="41" t="s">
-        <v>738</v>
+      <c r="L112" s="40" t="s">
+        <v>737</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>27</v>
@@ -10050,12 +10395,12 @@
         <v>35</v>
       </c>
       <c r="U112" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V112" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="W112" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="W112" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -10115,7 +10460,7 @@
         <v>35</v>
       </c>
       <c r="U113" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.25">
@@ -10140,7 +10485,7 @@
       <c r="G114" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="32" t="s">
+      <c r="H114" s="31" t="s">
         <v>431</v>
       </c>
       <c r="I114" s="1" t="s">
@@ -10152,7 +10497,7 @@
       <c r="K114" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L114" s="40" t="s">
+      <c r="L114" s="39" t="s">
         <v>429</v>
       </c>
       <c r="M114" s="1" t="s">
@@ -10179,7 +10524,7 @@
       <c r="V114" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="W114" s="34" t="s">
+      <c r="W114" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -10205,7 +10550,7 @@
       <c r="G115" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H115" s="32" t="s">
+      <c r="H115" s="31" t="s">
         <v>427</v>
       </c>
       <c r="I115" s="1" t="s">
@@ -10217,8 +10562,8 @@
       <c r="K115" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L115" s="41" t="s">
-        <v>736</v>
+      <c r="L115" s="40" t="s">
+        <v>735</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>27</v>
@@ -10242,9 +10587,9 @@
         <v>665</v>
       </c>
       <c r="V115" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="W115" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="W115" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -10360,7 +10705,7 @@
         <v>34</v>
       </c>
       <c r="W117" s="8"/>
-      <c r="AM117" s="52"/>
+      <c r="AM117" s="51"/>
     </row>
     <row r="118" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
@@ -10421,7 +10766,7 @@
         <v>369</v>
       </c>
       <c r="W118" s="8"/>
-      <c r="AM118" s="52"/>
+      <c r="AM118" s="51"/>
     </row>
     <row r="119" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
@@ -10482,7 +10827,7 @@
         <v>370</v>
       </c>
       <c r="W119" s="8"/>
-      <c r="AM119" s="52"/>
+      <c r="AM119" s="51"/>
     </row>
     <row r="120" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
@@ -10540,7 +10885,7 @@
         <v>34</v>
       </c>
       <c r="W120" s="8"/>
-      <c r="AM120" s="52"/>
+      <c r="AM120" s="51"/>
     </row>
     <row r="121" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
@@ -10601,7 +10946,7 @@
         <v>377</v>
       </c>
       <c r="W121" s="8"/>
-      <c r="AM121" s="52"/>
+      <c r="AM121" s="51"/>
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -10715,7 +11060,7 @@
         <v>34</v>
       </c>
       <c r="W123" s="8"/>
-      <c r="AM123" s="52"/>
+      <c r="AM123" s="51"/>
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -10829,7 +11174,7 @@
         <v>34</v>
       </c>
       <c r="W125" s="8"/>
-      <c r="AM125" s="52"/>
+      <c r="AM125" s="51"/>
     </row>
     <row r="126" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
@@ -10887,7 +11232,7 @@
         <v>34</v>
       </c>
       <c r="W126" s="8"/>
-      <c r="AM126" s="52"/>
+      <c r="AM126" s="51"/>
     </row>
     <row r="127" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
@@ -10945,10 +11290,10 @@
         <v>34</v>
       </c>
       <c r="W127" s="8"/>
-      <c r="AM127" s="52"/>
+      <c r="AM127" s="51"/>
     </row>
     <row r="128" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="26" t="s">
+      <c r="A128" s="25" t="s">
         <v>389</v>
       </c>
       <c r="B128" s="8">
@@ -11009,10 +11354,10 @@
         <v>637</v>
       </c>
       <c r="W128" s="8"/>
-      <c r="AM128" s="52"/>
+      <c r="AM128" s="51"/>
     </row>
     <row r="129" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26" t="s">
+      <c r="A129" s="25" t="s">
         <v>391</v>
       </c>
       <c r="B129" s="8">
@@ -11073,7 +11418,7 @@
         <v>636</v>
       </c>
       <c r="W129" s="8"/>
-      <c r="AM129" s="52"/>
+      <c r="AM129" s="51"/>
     </row>
     <row r="130" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
@@ -11134,7 +11479,7 @@
         <v>370</v>
       </c>
       <c r="W130" s="8"/>
-      <c r="AM130" s="52"/>
+      <c r="AM130" s="51"/>
     </row>
     <row r="131" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
@@ -11195,7 +11540,7 @@
         <v>370</v>
       </c>
       <c r="W131" s="8"/>
-      <c r="AM131" s="52"/>
+      <c r="AM131" s="51"/>
     </row>
     <row r="132" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
@@ -11256,7 +11601,7 @@
         <v>370</v>
       </c>
       <c r="W132" s="8"/>
-      <c r="AM132" s="52"/>
+      <c r="AM132" s="51"/>
     </row>
     <row r="133" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
@@ -11317,7 +11662,7 @@
         <v>370</v>
       </c>
       <c r="W133" s="8"/>
-      <c r="AM133" s="52"/>
+      <c r="AM133" s="51"/>
     </row>
     <row r="134" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
@@ -11378,7 +11723,7 @@
         <v>370</v>
       </c>
       <c r="W134" s="8"/>
-      <c r="AM134" s="52"/>
+      <c r="AM134" s="51"/>
     </row>
     <row r="135" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
@@ -11437,7 +11782,7 @@
       </c>
       <c r="U135" s="10"/>
       <c r="W135" s="8"/>
-      <c r="AM135" s="52"/>
+      <c r="AM135" s="51"/>
     </row>
     <row r="136" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
@@ -11496,7 +11841,7 @@
       </c>
       <c r="U136" s="10"/>
       <c r="W136" s="8"/>
-      <c r="AM136" s="52"/>
+      <c r="AM136" s="51"/>
     </row>
     <row r="137" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
@@ -11555,9 +11900,10 @@
       </c>
       <c r="U137" s="10"/>
       <c r="W137" s="8"/>
-      <c r="AM137" s="52"/>
+      <c r="AM137" s="51"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11632,7 +11978,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C6" s="1">
         <v>0.3</v>
